--- a/Project2_Data.xlsx
+++ b/Project2_Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
   <si>
     <t>L1 Data Cache Accesses</t>
   </si>
@@ -50,6 +50,9 @@
     <t>L1 Instruction Cache Miss Rate</t>
   </si>
   <si>
+    <t>L2 Cache Accesses</t>
+  </si>
+  <si>
     <t>4-Way Associative</t>
   </si>
   <si>
@@ -93,6 +96,45 @@
   </si>
   <si>
     <t>sample_large2</t>
+  </si>
+  <si>
+    <t>L2 Read Accesses</t>
+  </si>
+  <si>
+    <t>L2 Write Accesses</t>
+  </si>
+  <si>
+    <t>Total Execution Time</t>
+  </si>
+  <si>
+    <t>512KB, 4-Way</t>
+  </si>
+  <si>
+    <t>512KB, 8-Way</t>
+  </si>
+  <si>
+    <t>1MB, 8-Wat</t>
+  </si>
+  <si>
+    <t>Trace1</t>
+  </si>
+  <si>
+    <t>1MB, 8-Way</t>
+  </si>
+  <si>
+    <t>Trace2</t>
+  </si>
+  <si>
+    <t>L2 Misses</t>
+  </si>
+  <si>
+    <t>L2 Miss Rate</t>
+  </si>
+  <si>
+    <t>L2 Read Misses</t>
+  </si>
+  <si>
+    <t>L2 Write Misses</t>
   </si>
 </sst>
 </file>
@@ -447,16 +489,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H72"/>
+  <dimension ref="B2:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -464,38 +507,38 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>20813030</v>
@@ -518,7 +561,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>9625833</v>
@@ -599,7 +642,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>10017026</v>
@@ -622,7 +665,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>2759200</v>
@@ -807,7 +850,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>2231263675</v>
@@ -830,38 +873,38 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>20813030</v>
@@ -884,7 +927,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <v>9625833</v>
@@ -965,7 +1008,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>8916401</v>
@@ -988,7 +1031,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28">
         <v>2476043</v>
@@ -1173,7 +1216,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>1954118075</v>
@@ -1196,38 +1239,38 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41">
         <v>29411337</v>
@@ -1250,7 +1293,7 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C42">
         <v>6673647</v>
@@ -1331,7 +1374,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C45">
         <v>16536302</v>
@@ -1354,7 +1397,7 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C46">
         <v>5850568</v>
@@ -1539,7 +1582,7 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C54">
         <v>3649087835</v>
@@ -1562,38 +1605,38 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C57" s="1"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59">
         <v>29411337</v>
@@ -1616,7 +1659,7 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C60">
         <v>6673647</v>
@@ -1697,7 +1740,7 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C63">
         <v>15464556</v>
@@ -1720,7 +1763,7 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C64">
         <v>5749639</v>
@@ -1905,7 +1948,7 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C72">
         <v>3100969355</v>
@@ -1924,6 +1967,276 @@
       </c>
       <c r="H72">
         <v>2483921995</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75">
+        <v>7176477</v>
+      </c>
+      <c r="D75">
+        <v>7176477</v>
+      </c>
+      <c r="E75">
+        <v>7176477</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>1399342</v>
+      </c>
+      <c r="D76">
+        <v>1399342</v>
+      </c>
+      <c r="E76">
+        <v>1399342</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <f>C75+C76</f>
+        <v>8575819</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ref="D77:E77" si="107">D75+D76</f>
+        <v>8575819</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="107"/>
+        <v>8575819</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78">
+        <v>1716334</v>
+      </c>
+      <c r="D78">
+        <v>1704921</v>
+      </c>
+      <c r="E78">
+        <v>1521667</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79">
+        <v>78219</v>
+      </c>
+      <c r="D79">
+        <v>82513</v>
+      </c>
+      <c r="E79">
+        <v>63213</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80">
+        <f>C79+C78</f>
+        <v>1794553</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ref="D80:E80" si="108">D79+D78</f>
+        <v>1787434</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="108"/>
+        <v>1584880</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81">
+        <f>C80/C77</f>
+        <v>0.20925733157381238</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ref="D81:E81" si="109">D80/D77</f>
+        <v>0.20842720677756843</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="109"/>
+        <v>0.18480800492640995</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83">
+        <v>414757805</v>
+      </c>
+      <c r="D83">
+        <v>447965961</v>
+      </c>
+      <c r="E83">
+        <v>430900059</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86">
+        <v>15108476</v>
+      </c>
+      <c r="D86">
+        <v>15108476</v>
+      </c>
+      <c r="E86">
+        <v>15108476</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87">
+        <v>5205108</v>
+      </c>
+      <c r="D87">
+        <v>5205108</v>
+      </c>
+      <c r="E87">
+        <v>5205108</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <f>C86+C87</f>
+        <v>20313584</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ref="D88" si="110">D86+D87</f>
+        <v>20313584</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ref="E88" si="111">E86+E87</f>
+        <v>20313584</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89">
+        <v>11063239</v>
+      </c>
+      <c r="D89">
+        <v>11174627</v>
+      </c>
+      <c r="E89">
+        <v>8721449</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90">
+        <v>3927207</v>
+      </c>
+      <c r="D90">
+        <v>3935890</v>
+      </c>
+      <c r="E90">
+        <v>2921195</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91">
+        <f>C90+C89</f>
+        <v>14990446</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ref="D91:E91" si="112">D90+D89</f>
+        <v>15110517</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="112"/>
+        <v>11642644</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92">
+        <f>C91/C88</f>
+        <v>0.73795180604269539</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ref="D92:E92" si="113">D91/D88</f>
+        <v>0.74386267829448516</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="113"/>
+        <v>0.57314573341661423</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94">
+        <v>1844992985</v>
+      </c>
+      <c r="D94">
+        <v>2066107269</v>
+      </c>
+      <c r="E94">
+        <v>1612970779</v>
       </c>
     </row>
   </sheetData>
